--- a/精度評価.xlsx
+++ b/精度評価.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC241CC-AAA2-425D-97FB-8662128C537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0D28D-F38D-41E7-87C6-75DEC82F732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
+    <sheet name="評価結果" sheetId="2" r:id="rId1"/>
+    <sheet name="テンプレート（使い方）" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>P3</t>
   </si>
   <si>
     <t>モデル名</t>
-  </si>
-  <si>
-    <t>モデルタイプ</t>
   </si>
   <si>
     <t>Teacher</t>
@@ -116,6 +114,18 @@
   </si>
   <si>
     <t>モデル指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -319,6 +329,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEB33516-D08B-4089-AFB7-0DCD5838E0F9}" name="ModelTable3" displayName="ModelTable3" ref="A2:M12">
+  <autoFilter ref="A2:M12" xr:uid="{DEB33516-D08B-4089-AFB7-0DCD5838E0F9}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DB846B81-D48F-48C0-8BC1-1A1B58662C20}" name="モデル名"/>
+    <tableColumn id="2" xr3:uid="{71903AA2-FF66-4192-82B6-B5169BB13556}" name="モデルタイプ"/>
+    <tableColumn id="3" xr3:uid="{E67A3C72-F0A6-44B7-8323-1BC790F8EBC5}" name="Teacher"/>
+    <tableColumn id="4" xr3:uid="{8237EEDB-646C-40FE-B667-D67261AF9F64}" name="Distilled"/>
+    <tableColumn id="5" xr3:uid="{C0E9809E-6CB8-49B4-A27C-BEFE123C699C}" name="QAT"/>
+    <tableColumn id="7" xr3:uid="{44E87BD7-921F-4B40-B6DD-8DD68D0277BA}" name="1.00E-07"/>
+    <tableColumn id="8" xr3:uid="{5F140A02-1AF8-4FA6-8AB2-6999A4D092E7}" name="1.00E-06"/>
+    <tableColumn id="11" xr3:uid="{0D04BD2E-18A7-4AAD-B6A0-057606F114CD}" name="1.00E-05"/>
+    <tableColumn id="12" xr3:uid="{45D4712F-BBBA-4602-BD3E-E3163D952BB4}" name="1.00E-04"/>
+    <tableColumn id="13" xr3:uid="{8C323DE3-90B1-42AB-BA7E-E865452CEC2F}" name="1.00E-03"/>
+    <tableColumn id="14" xr3:uid="{CFED64AB-E0FD-4ABB-AA7C-7047A67B6B2E}" name="1.00E-02"/>
+    <tableColumn id="9" xr3:uid="{9FE113A1-E9B4-48C3-B1F7-4F7DF37C4FBD}" name="1.00E-01"/>
+    <tableColumn id="10" xr3:uid="{3DDDA2DE-EF75-4E86-8AB9-58426CC5E168}" name="表示対象">
+      <calculatedColumnFormula>OR(A3=$B$1,A3=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ModelTable" displayName="ModelTable" ref="A2:M12">
   <autoFilter ref="A2:M12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
@@ -624,11 +658,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5211A360-C92E-45BC-B6FF-5367BBD18A1B}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M12" si="0">OR(A3=$B$1,A3=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.44</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,10 +1174,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -660,51 +1185,51 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,22 +1253,22 @@
         <v>3</v>
       </c>
       <c r="M3" t="b">
-        <f>OR(A3=$B$1,A3=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" ref="M3:M12" si="0">OR(A3=$B$1,A3=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A3=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -767,25 +1292,25 @@
         <v>4</v>
       </c>
       <c r="M4" t="b">
-        <f>OR(A4=$B$1,A4=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A4=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A4=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -809,26 +1334,26 @@
         <v>9</v>
       </c>
       <c r="M5" t="b">
-        <f>OR(A5=$B$1,A5=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A5=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A5=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -851,22 +1376,22 @@
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <f>OR(A6=$B$1,A6=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A6=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A6=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -890,25 +1415,25 @@
         <v>5</v>
       </c>
       <c r="M7" t="b">
-        <f>OR(A7=$B$1,A7=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A7=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A7=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -932,26 +1457,26 @@
         <v>0.44</v>
       </c>
       <c r="M8" t="b">
-        <f>OR(A8=$B$1,A8=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A8=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A8=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9">
         <v>3</v>
       </c>
@@ -974,25 +1499,25 @@
         <v>2</v>
       </c>
       <c r="M9" t="b">
-        <f>OR(A9=$B$1,A9=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A9=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A9=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1016,8 +1541,8 @@
         <v>3</v>
       </c>
       <c r="M10" t="b">
-        <f>OR(A10=$B$1,A10=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A10=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A10=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1025,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1058,25 +1583,25 @@
         <v>2</v>
       </c>
       <c r="M11" t="b">
-        <f>OR(A11=$B$1,A11=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A11=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A11=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1100,8 +1625,8 @@
         <v>2</v>
       </c>
       <c r="M12" t="b">
-        <f>OR(A12=$B$1,A12=VLOOKUP($B$1,$A$3:$E$12,3,FALSE),A12=VLOOKUP($B$1,$A$3:$E$12,4,FALSE),A12=VLOOKUP($B$1,$A$3:$E$12,5,FALSE))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
